--- a/汽柴煤油2.0/eta/LU-连1-连2_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/LU-连1-连2_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>14.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="C3" t="n">
-        <v>34.5</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>8.9</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>1.1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>12.8</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>24.7</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="10">
@@ -575,7 +575,7 @@
         <v>13.7</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>15.4</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>108.7</v>
       </c>
       <c r="C14" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>115.3</v>
       </c>
       <c r="C16" t="n">
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="17">
@@ -692,7 +692,7 @@
         <v>9.9</v>
       </c>
       <c r="C20" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>2.6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
